--- a/Data/Sulfate + Drain IC Porewater Sampling Data Seasonal Final.xlsx
+++ b/Data/Sulfate + Drain IC Porewater Sampling Data Seasonal Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Sulfate_Drain\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="267">
   <si>
     <t>Date_Analyzed</t>
   </si>
@@ -799,19 +799,39 @@
   </si>
   <si>
     <t>09-23-2025</t>
+  </si>
+  <si>
+    <t>F_ppm</t>
+  </si>
+  <si>
+    <t>Cl_ppm</t>
+  </si>
+  <si>
+    <t>NO2_ppm</t>
+  </si>
+  <si>
+    <t>Br_ppm</t>
+  </si>
+  <si>
+    <t>NO3_ppm</t>
+  </si>
+  <si>
+    <t>PO4_ppm</t>
+  </si>
+  <si>
+    <t>n.a.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="168" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -876,12 +896,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -890,26 +910,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1132,10 +1152,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M245" sqref="M245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1145,10 +1166,11 @@
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1189,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45890</v>
       </c>
@@ -1185,9 +1225,26 @@
         <v>86.219499999999996</v>
       </c>
       <c r="F2" s="9"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2">
+        <v>154.2638</v>
+      </c>
+      <c r="I2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45890</v>
       </c>
@@ -1204,9 +1261,26 @@
         <v>107.0919</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3">
+        <v>33.317</v>
+      </c>
+      <c r="I3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45890</v>
       </c>
@@ -1223,9 +1297,26 @@
         <v>157.7191</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4">
+        <v>76.2166</v>
+      </c>
+      <c r="I4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45890</v>
       </c>
@@ -1242,9 +1333,26 @@
         <v>44.7059</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5">
+        <v>29.434999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45890</v>
       </c>
@@ -1261,14 +1369,27 @@
         <v>161.75909999999999</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45890</v>
       </c>
@@ -1285,14 +1406,27 @@
         <v>61.3187</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7">
+        <v>69.141499999999994</v>
+      </c>
+      <c r="I7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45890</v>
       </c>
@@ -1309,14 +1443,27 @@
         <v>106.0836</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8">
+        <v>108.78700000000001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45890</v>
       </c>
@@ -1333,14 +1480,27 @@
         <v>133.61490000000001</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9">
+        <v>130.92500000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45890</v>
       </c>
@@ -1357,14 +1517,27 @@
         <v>347.66079999999999</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10">
+        <v>137.2997</v>
+      </c>
+      <c r="I10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45890</v>
       </c>
@@ -1381,14 +1554,27 @@
         <v>143.38560000000001</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11">
+        <v>164.9485</v>
+      </c>
+      <c r="I11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45890</v>
       </c>
@@ -1405,14 +1591,27 @@
         <v>63.384300000000003</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12">
+        <v>52.334600000000002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45890</v>
       </c>
@@ -1429,14 +1628,27 @@
         <v>572.94380000000001</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>0.36309999999999998</v>
+      </c>
+      <c r="H13">
+        <v>240.47810000000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45890</v>
       </c>
@@ -1453,14 +1665,27 @@
         <v>347.39640000000003</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14">
+        <v>228.70310000000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45890</v>
       </c>
@@ -1477,14 +1702,27 @@
         <v>324.68619999999999</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15">
+        <v>88.771199999999993</v>
+      </c>
+      <c r="I15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45890</v>
       </c>
@@ -1501,14 +1739,27 @@
         <v>136.17259999999999</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>0.5615</v>
+      </c>
+      <c r="H16">
+        <v>154.81360000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45890</v>
       </c>
@@ -1525,14 +1776,27 @@
         <v>77.340699999999998</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>1.323</v>
+      </c>
+      <c r="H17">
+        <v>155.68870000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45890</v>
       </c>
@@ -1549,14 +1813,27 @@
         <v>60.055300000000003</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18">
+        <v>31.155799999999999</v>
+      </c>
+      <c r="I18" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45890</v>
       </c>
@@ -1573,14 +1850,27 @@
         <v>90.948899999999995</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19">
+        <v>67.128699999999995</v>
+      </c>
+      <c r="I19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45890</v>
       </c>
@@ -1597,14 +1887,27 @@
         <v>38.530900000000003</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20">
+        <v>31.5078</v>
+      </c>
+      <c r="I20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45890</v>
       </c>
@@ -1621,9 +1924,26 @@
         <v>89.462199999999996</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21">
+        <v>67.279300000000006</v>
+      </c>
+      <c r="I21" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45890</v>
       </c>
@@ -1640,9 +1960,26 @@
         <v>44.847499999999997</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22">
+        <v>61.541400000000003</v>
+      </c>
+      <c r="I22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" t="s">
+        <v>266</v>
+      </c>
+      <c r="K22" t="s">
+        <v>266</v>
+      </c>
+      <c r="L22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45890</v>
       </c>
@@ -1659,9 +1996,26 @@
         <v>95.094999999999999</v>
       </c>
       <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23">
+        <v>115.0548</v>
+      </c>
+      <c r="I23" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>45890</v>
       </c>
@@ -1678,9 +2032,26 @@
         <v>121.1593</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24">
+        <v>141.3015</v>
+      </c>
+      <c r="I24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" t="s">
+        <v>266</v>
+      </c>
+      <c r="K24" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>45890</v>
       </c>
@@ -1697,9 +2068,26 @@
         <v>136.89859999999999</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25">
+        <v>102.6925</v>
+      </c>
+      <c r="I25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45890</v>
       </c>
@@ -1716,9 +2104,26 @@
         <v>126.3</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26">
+        <v>227.10210000000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" t="s">
+        <v>266</v>
+      </c>
+      <c r="K26" t="s">
+        <v>266</v>
+      </c>
+      <c r="L26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45890</v>
       </c>
@@ -1735,9 +2140,26 @@
         <v>66.667199999999994</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27">
+        <v>66.873199999999997</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45890</v>
       </c>
@@ -1754,9 +2176,26 @@
         <v>216.5693</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28">
+        <v>201.73599999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>266</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45890</v>
       </c>
@@ -1773,9 +2212,26 @@
         <v>186.6224</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H29">
+        <v>197.49639999999999</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45890</v>
       </c>
@@ -1792,9 +2248,26 @@
         <v>111.32850000000001</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30">
+        <v>75.287999999999997</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45890</v>
       </c>
@@ -1811,9 +2284,26 @@
         <v>46.180199999999999</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31">
+        <v>106.95010000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45862</v>
       </c>
@@ -1830,9 +2320,26 @@
         <v>55.887599999999999</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45868</v>
       </c>
@@ -1849,9 +2356,26 @@
         <v>55.6526</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45868</v>
       </c>
@@ -1868,9 +2392,26 @@
         <v>86.915499999999994</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45868</v>
       </c>
@@ -1887,9 +2428,26 @@
         <v>26.041399999999999</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45868</v>
       </c>
@@ -1906,9 +2464,26 @@
         <v>61.932899999999997</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45868</v>
       </c>
@@ -1925,9 +2500,26 @@
         <v>30.919599999999999</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45868</v>
       </c>
@@ -1944,9 +2536,26 @@
         <v>64.412700000000001</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45868</v>
       </c>
@@ -1963,9 +2572,26 @@
         <v>107.5775</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39">
+        <v>131.0985</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
+        <v>266</v>
+      </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45868</v>
       </c>
@@ -1982,9 +2608,26 @@
         <v>125.85899999999999</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40">
+        <v>123.7373</v>
+      </c>
+      <c r="I40" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45868</v>
       </c>
@@ -2001,9 +2644,26 @@
         <v>118.2835</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41">
+        <v>206.16499999999999</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45868</v>
       </c>
@@ -2020,9 +2680,26 @@
         <v>62.3658</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" t="s">
+        <v>266</v>
+      </c>
+      <c r="L42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45868</v>
       </c>
@@ -2039,9 +2716,26 @@
         <v>103.2033</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43">
+        <v>138.38239999999999</v>
+      </c>
+      <c r="I43" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" t="s">
+        <v>266</v>
+      </c>
+      <c r="K43" t="s">
+        <v>266</v>
+      </c>
+      <c r="L43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45868</v>
       </c>
@@ -2058,9 +2752,26 @@
         <v>134.56829999999999</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44">
+        <v>174.393</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45868</v>
       </c>
@@ -2077,9 +2788,26 @@
         <v>102.7724</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" t="s">
+        <v>266</v>
+      </c>
+      <c r="K45" t="s">
+        <v>266</v>
+      </c>
+      <c r="L45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45868</v>
       </c>
@@ -2096,9 +2824,26 @@
         <v>35.599899999999998</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K46" t="s">
+        <v>266</v>
+      </c>
+      <c r="L46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45868</v>
       </c>
@@ -2115,9 +2860,26 @@
         <v>40.774000000000001</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>45868</v>
       </c>
@@ -2134,9 +2896,26 @@
         <v>40.7941</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" t="s">
+        <v>266</v>
+      </c>
+      <c r="L48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45868</v>
       </c>
@@ -2153,9 +2932,26 @@
         <v>77.202799999999996</v>
       </c>
       <c r="F49" s="8"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s">
+        <v>266</v>
+      </c>
+      <c r="L49" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45868</v>
       </c>
@@ -2172,9 +2968,26 @@
         <v>17.377500000000001</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" t="s">
+        <v>266</v>
+      </c>
+      <c r="K50" t="s">
+        <v>266</v>
+      </c>
+      <c r="L50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45868</v>
       </c>
@@ -2191,9 +3004,26 @@
         <v>28.2317</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" t="s">
+        <v>266</v>
+      </c>
+      <c r="K51" t="s">
+        <v>266</v>
+      </c>
+      <c r="L51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45868</v>
       </c>
@@ -2210,9 +3040,26 @@
         <v>14.849600000000001</v>
       </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" t="s">
+        <v>266</v>
+      </c>
+      <c r="J52" t="s">
+        <v>266</v>
+      </c>
+      <c r="K52" t="s">
+        <v>266</v>
+      </c>
+      <c r="L52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45868</v>
       </c>
@@ -2229,9 +3076,26 @@
         <v>74.698800000000006</v>
       </c>
       <c r="F53" s="8"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" t="s">
+        <v>266</v>
+      </c>
+      <c r="J53" t="s">
+        <v>266</v>
+      </c>
+      <c r="K53" t="s">
+        <v>266</v>
+      </c>
+      <c r="L53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45868</v>
       </c>
@@ -2248,9 +3112,26 @@
         <v>107.64360000000001</v>
       </c>
       <c r="F54" s="8"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" t="s">
+        <v>266</v>
+      </c>
+      <c r="J54" t="s">
+        <v>266</v>
+      </c>
+      <c r="K54" t="s">
+        <v>266</v>
+      </c>
+      <c r="L54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45868</v>
       </c>
@@ -2267,9 +3148,26 @@
         <v>108.5497</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H55" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" t="s">
+        <v>266</v>
+      </c>
+      <c r="J55" t="s">
+        <v>266</v>
+      </c>
+      <c r="K55" t="s">
+        <v>266</v>
+      </c>
+      <c r="L55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45868</v>
       </c>
@@ -2286,10 +3184,26 @@
         <v>62.640599999999999</v>
       </c>
       <c r="F56" s="8"/>
-      <c r="G56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H56" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J56" t="s">
+        <v>266</v>
+      </c>
+      <c r="K56" t="s">
+        <v>266</v>
+      </c>
+      <c r="L56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45868</v>
       </c>
@@ -2306,10 +3220,26 @@
         <v>43.894500000000001</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J57" t="s">
+        <v>266</v>
+      </c>
+      <c r="K57" t="s">
+        <v>266</v>
+      </c>
+      <c r="L57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45868</v>
       </c>
@@ -2326,10 +3256,26 @@
         <v>116.0408</v>
       </c>
       <c r="F58" s="8"/>
-      <c r="G58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J58" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" t="s">
+        <v>266</v>
+      </c>
+      <c r="L58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45868</v>
       </c>
@@ -2346,10 +3292,26 @@
         <v>135.85730000000001</v>
       </c>
       <c r="F59" s="8"/>
-      <c r="G59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59" t="s">
+        <v>266</v>
+      </c>
+      <c r="K59" t="s">
+        <v>266</v>
+      </c>
+      <c r="L59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45868</v>
       </c>
@@ -2366,10 +3328,26 @@
         <v>106.17</v>
       </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J60" t="s">
+        <v>266</v>
+      </c>
+      <c r="K60" t="s">
+        <v>266</v>
+      </c>
+      <c r="L60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>45868</v>
       </c>
@@ -2386,10 +3364,26 @@
         <v>25.317</v>
       </c>
       <c r="F61" s="8"/>
-      <c r="G61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J61" t="s">
+        <v>266</v>
+      </c>
+      <c r="K61" t="s">
+        <v>266</v>
+      </c>
+      <c r="L61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>45856</v>
       </c>
@@ -2406,12 +3400,26 @@
         <v>33.695799999999998</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="6">
+        <v>84.866799999999998</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.5141</v>
+      </c>
+      <c r="K62" t="s">
+        <v>266</v>
+      </c>
+      <c r="L62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>45856</v>
       </c>
@@ -2428,12 +3436,26 @@
         <v>27.552900000000001</v>
       </c>
       <c r="F63" s="13"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G63" s="5">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="H63" s="6">
+        <v>20.095600000000001</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K63" t="s">
+        <v>266</v>
+      </c>
+      <c r="L63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>45856</v>
       </c>
@@ -2450,12 +3472,26 @@
         <v>26.273499999999999</v>
       </c>
       <c r="F64" s="13"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="H64" s="6">
+        <v>23.450600000000001</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K64" t="s">
+        <v>266</v>
+      </c>
+      <c r="L64" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>45856</v>
       </c>
@@ -2472,12 +3508,26 @@
         <v>10.394399999999999</v>
       </c>
       <c r="F65" s="13"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H65" s="6">
+        <v>8.3261000000000003</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K65" t="s">
+        <v>266</v>
+      </c>
+      <c r="L65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>45856</v>
       </c>
@@ -2494,12 +3544,26 @@
         <v>22.9603</v>
       </c>
       <c r="F66" s="13"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G66" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="6">
+        <v>37.648200000000003</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="K66" t="s">
+        <v>266</v>
+      </c>
+      <c r="L66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>45856</v>
       </c>
@@ -2516,12 +3580,26 @@
         <v>13.1075</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="6">
+        <v>22.3325</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K67" t="s">
+        <v>266</v>
+      </c>
+      <c r="L67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>45856</v>
       </c>
@@ -2538,12 +3616,26 @@
         <v>42.667700000000004</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="6">
+        <v>60.137500000000003</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K68" t="s">
+        <v>266</v>
+      </c>
+      <c r="L68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>45856</v>
       </c>
@@ -2560,12 +3652,26 @@
         <v>26.580200000000001</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G69" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="6">
+        <v>30.892700000000001</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K69" t="s">
+        <v>266</v>
+      </c>
+      <c r="L69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>45856</v>
       </c>
@@ -2582,12 +3688,26 @@
         <v>30.5396</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="8"/>
-    </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="6">
+        <v>32.183999999999997</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K70" t="s">
+        <v>266</v>
+      </c>
+      <c r="L70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>45856</v>
       </c>
@@ -2604,12 +3724,26 @@
         <v>52.350200000000001</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="6">
+        <v>99.647499999999994</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K71" t="s">
+        <v>266</v>
+      </c>
+      <c r="L71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>45856</v>
       </c>
@@ -2626,12 +3760,26 @@
         <v>16.429500000000001</v>
       </c>
       <c r="F72" s="13"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G72" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="6">
+        <v>22.547499999999999</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K72" t="s">
+        <v>266</v>
+      </c>
+      <c r="L72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>45856</v>
       </c>
@@ -2648,12 +3796,26 @@
         <v>41.529600000000002</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G73" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H73" s="6">
+        <v>70.951800000000006</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K73" t="s">
+        <v>266</v>
+      </c>
+      <c r="L73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>45856</v>
       </c>
@@ -2670,12 +3832,26 @@
         <v>34.205800000000004</v>
       </c>
       <c r="F74" s="13"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G74" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" s="6">
+        <v>42.220399999999998</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K74" t="s">
+        <v>266</v>
+      </c>
+      <c r="L74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>45856</v>
       </c>
@@ -2692,12 +3868,26 @@
         <v>24.756599999999999</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="6">
+        <v>11.2173</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K75" t="s">
+        <v>266</v>
+      </c>
+      <c r="L75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>45856</v>
       </c>
@@ -2714,12 +3904,26 @@
         <v>20.7255</v>
       </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G76" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" s="6">
+        <v>60.9223</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K76" t="s">
+        <v>266</v>
+      </c>
+      <c r="L76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>45873</v>
       </c>
@@ -2735,10 +3939,26 @@
       <c r="E77" s="8">
         <v>3.5897000000000001</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G77" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" t="s">
+        <v>266</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J77" t="s">
+        <v>266</v>
+      </c>
+      <c r="K77" t="s">
+        <v>266</v>
+      </c>
+      <c r="L77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>45873</v>
       </c>
@@ -2754,10 +3974,26 @@
       <c r="E78" s="8">
         <v>6.6330999999999998</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" t="s">
+        <v>266</v>
+      </c>
+      <c r="K78" t="s">
+        <v>266</v>
+      </c>
+      <c r="L78" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>45873</v>
       </c>
@@ -2773,10 +4009,26 @@
       <c r="E79" s="8">
         <v>10.467599999999999</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" t="s">
+        <v>266</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J79" t="s">
+        <v>266</v>
+      </c>
+      <c r="K79" t="s">
+        <v>266</v>
+      </c>
+      <c r="L79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>45873</v>
       </c>
@@ -2792,10 +4044,26 @@
       <c r="E80" s="8">
         <v>3.2583000000000002</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G80" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" t="s">
+        <v>266</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J80" t="s">
+        <v>266</v>
+      </c>
+      <c r="K80" t="s">
+        <v>266</v>
+      </c>
+      <c r="L80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>45873</v>
       </c>
@@ -2811,10 +4079,26 @@
       <c r="E81" s="8">
         <v>5.1980000000000004</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G81" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" t="s">
+        <v>266</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J81" t="s">
+        <v>266</v>
+      </c>
+      <c r="K81" t="s">
+        <v>266</v>
+      </c>
+      <c r="L81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>45873</v>
       </c>
@@ -2830,10 +4114,26 @@
       <c r="E82" s="8">
         <v>2.4944000000000002</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G82" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J82" t="s">
+        <v>266</v>
+      </c>
+      <c r="K82" t="s">
+        <v>266</v>
+      </c>
+      <c r="L82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>45873</v>
       </c>
@@ -2849,10 +4149,26 @@
       <c r="E83" s="8">
         <v>4.3617999999999997</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G83" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J83" t="s">
+        <v>266</v>
+      </c>
+      <c r="K83" t="s">
+        <v>266</v>
+      </c>
+      <c r="L83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>45873</v>
       </c>
@@ -2868,10 +4184,26 @@
       <c r="E84" s="8">
         <v>9.2052999999999994</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J84" t="s">
+        <v>266</v>
+      </c>
+      <c r="K84" t="s">
+        <v>266</v>
+      </c>
+      <c r="L84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>45873</v>
       </c>
@@ -2887,10 +4219,26 @@
       <c r="E85" s="8">
         <v>7.4128999999999996</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J85" t="s">
+        <v>266</v>
+      </c>
+      <c r="K85" t="s">
+        <v>266</v>
+      </c>
+      <c r="L85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>45873</v>
       </c>
@@ -2906,9 +4254,26 @@
       <c r="E86" s="8">
         <v>10.7719</v>
       </c>
-      <c r="G86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G86" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" t="s">
+        <v>266</v>
+      </c>
+      <c r="J86" t="s">
+        <v>266</v>
+      </c>
+      <c r="K86" t="s">
+        <v>266</v>
+      </c>
+      <c r="L86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>45873</v>
       </c>
@@ -2924,9 +4289,26 @@
       <c r="E87" s="8">
         <v>3.5556999999999999</v>
       </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G87" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H87" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" t="s">
+        <v>266</v>
+      </c>
+      <c r="J87" t="s">
+        <v>266</v>
+      </c>
+      <c r="K87" t="s">
+        <v>266</v>
+      </c>
+      <c r="L87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
         <v>45873</v>
       </c>
@@ -2942,9 +4324,26 @@
       <c r="E88" s="8">
         <v>14.412100000000001</v>
       </c>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G88" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H88">
+        <v>12.1915</v>
+      </c>
+      <c r="I88" t="s">
+        <v>266</v>
+      </c>
+      <c r="J88" t="s">
+        <v>266</v>
+      </c>
+      <c r="K88" t="s">
+        <v>266</v>
+      </c>
+      <c r="L88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>45873</v>
       </c>
@@ -2960,9 +4359,26 @@
       <c r="E89" s="8">
         <v>17.305900000000001</v>
       </c>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G89" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89">
+        <v>12.316599999999999</v>
+      </c>
+      <c r="I89" t="s">
+        <v>266</v>
+      </c>
+      <c r="J89" t="s">
+        <v>266</v>
+      </c>
+      <c r="K89" t="s">
+        <v>266</v>
+      </c>
+      <c r="L89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>45873</v>
       </c>
@@ -2978,9 +4394,26 @@
       <c r="E90" s="8">
         <v>29.7912</v>
       </c>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H90" t="s">
+        <v>266</v>
+      </c>
+      <c r="I90" t="s">
+        <v>266</v>
+      </c>
+      <c r="J90" t="s">
+        <v>266</v>
+      </c>
+      <c r="K90" t="s">
+        <v>266</v>
+      </c>
+      <c r="L90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>45873</v>
       </c>
@@ -2996,9 +4429,26 @@
       <c r="E91" s="8">
         <v>5.4825999999999997</v>
       </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G91" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91">
+        <v>12.8339</v>
+      </c>
+      <c r="I91" t="s">
+        <v>266</v>
+      </c>
+      <c r="J91" t="s">
+        <v>266</v>
+      </c>
+      <c r="K91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>45873</v>
       </c>
@@ -3014,9 +4464,26 @@
       <c r="E92" s="8">
         <v>6.1292999999999997</v>
       </c>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H92">
+        <v>10.901899999999999</v>
+      </c>
+      <c r="I92" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" t="s">
+        <v>266</v>
+      </c>
+      <c r="K92" t="s">
+        <v>266</v>
+      </c>
+      <c r="L92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>45873</v>
       </c>
@@ -3032,9 +4499,26 @@
       <c r="E93" s="8">
         <v>7.6181999999999999</v>
       </c>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G93" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H93" t="s">
+        <v>266</v>
+      </c>
+      <c r="I93" t="s">
+        <v>266</v>
+      </c>
+      <c r="J93" t="s">
+        <v>266</v>
+      </c>
+      <c r="K93" t="s">
+        <v>266</v>
+      </c>
+      <c r="L93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
         <v>45873</v>
       </c>
@@ -3050,9 +4534,26 @@
       <c r="E94" s="8">
         <v>24.235499999999998</v>
       </c>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G94" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" t="s">
+        <v>266</v>
+      </c>
+      <c r="I94" t="s">
+        <v>266</v>
+      </c>
+      <c r="J94" t="s">
+        <v>266</v>
+      </c>
+      <c r="K94" t="s">
+        <v>266</v>
+      </c>
+      <c r="L94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>45873</v>
       </c>
@@ -3068,9 +4569,26 @@
       <c r="E95" s="8">
         <v>1.7057</v>
       </c>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G95" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" t="s">
+        <v>266</v>
+      </c>
+      <c r="I95" t="s">
+        <v>266</v>
+      </c>
+      <c r="J95" t="s">
+        <v>266</v>
+      </c>
+      <c r="K95" t="s">
+        <v>266</v>
+      </c>
+      <c r="L95" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>45873</v>
       </c>
@@ -3086,9 +4604,26 @@
       <c r="E96" s="8">
         <v>4.6189999999999998</v>
       </c>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G96" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H96" t="s">
+        <v>266</v>
+      </c>
+      <c r="I96" t="s">
+        <v>266</v>
+      </c>
+      <c r="J96" t="s">
+        <v>266</v>
+      </c>
+      <c r="K96" t="s">
+        <v>266</v>
+      </c>
+      <c r="L96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>45873</v>
       </c>
@@ -3104,9 +4639,26 @@
       <c r="E97" s="8">
         <v>3.2605</v>
       </c>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G97" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H97" t="s">
+        <v>266</v>
+      </c>
+      <c r="I97" t="s">
+        <v>266</v>
+      </c>
+      <c r="J97" t="s">
+        <v>266</v>
+      </c>
+      <c r="K97" t="s">
+        <v>266</v>
+      </c>
+      <c r="L97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
         <v>45873</v>
       </c>
@@ -3122,9 +4674,26 @@
       <c r="E98" s="8">
         <v>7.5004999999999997</v>
       </c>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G98" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H98" t="s">
+        <v>266</v>
+      </c>
+      <c r="I98" t="s">
+        <v>266</v>
+      </c>
+      <c r="J98" t="s">
+        <v>266</v>
+      </c>
+      <c r="K98" t="s">
+        <v>266</v>
+      </c>
+      <c r="L98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>45873</v>
       </c>
@@ -3140,9 +4709,26 @@
       <c r="E99" s="8">
         <v>15.3225</v>
       </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99">
+        <v>13.0715</v>
+      </c>
+      <c r="I99" t="s">
+        <v>266</v>
+      </c>
+      <c r="J99" t="s">
+        <v>266</v>
+      </c>
+      <c r="K99" t="s">
+        <v>266</v>
+      </c>
+      <c r="L99" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>45873</v>
       </c>
@@ -3158,9 +4744,26 @@
       <c r="E100" s="8">
         <v>6.1608000000000001</v>
       </c>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G100" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H100">
+        <v>7.5605000000000002</v>
+      </c>
+      <c r="I100" t="s">
+        <v>266</v>
+      </c>
+      <c r="J100" t="s">
+        <v>266</v>
+      </c>
+      <c r="K100" t="s">
+        <v>266</v>
+      </c>
+      <c r="L100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>45873</v>
       </c>
@@ -3176,9 +4779,26 @@
       <c r="E101" s="8">
         <v>23.2072</v>
       </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G101" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H101">
+        <v>49.26</v>
+      </c>
+      <c r="I101" t="s">
+        <v>266</v>
+      </c>
+      <c r="J101" t="s">
+        <v>266</v>
+      </c>
+      <c r="K101" t="s">
+        <v>266</v>
+      </c>
+      <c r="L101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>45873</v>
       </c>
@@ -3194,9 +4814,26 @@
       <c r="E102" s="8">
         <v>3.972</v>
       </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G102" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H102">
+        <v>9.0626999999999995</v>
+      </c>
+      <c r="I102" t="s">
+        <v>266</v>
+      </c>
+      <c r="J102" t="s">
+        <v>266</v>
+      </c>
+      <c r="K102" t="s">
+        <v>266</v>
+      </c>
+      <c r="L102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>45873</v>
       </c>
@@ -3212,9 +4849,26 @@
       <c r="E103" s="8">
         <v>17.162199999999999</v>
       </c>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H103">
+        <v>40.796700000000001</v>
+      </c>
+      <c r="I103" t="s">
+        <v>266</v>
+      </c>
+      <c r="J103" t="s">
+        <v>266</v>
+      </c>
+      <c r="K103" t="s">
+        <v>266</v>
+      </c>
+      <c r="L103" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>45873</v>
       </c>
@@ -3230,9 +4884,26 @@
       <c r="E104" s="8">
         <v>24.384499999999999</v>
       </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H104">
+        <v>41.030099999999997</v>
+      </c>
+      <c r="I104" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" t="s">
+        <v>266</v>
+      </c>
+      <c r="K104" t="s">
+        <v>266</v>
+      </c>
+      <c r="L104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>45873</v>
       </c>
@@ -3248,9 +4919,26 @@
       <c r="E105" s="8">
         <v>51.086799999999997</v>
       </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G105" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H105">
+        <v>8.5143000000000004</v>
+      </c>
+      <c r="I105" t="s">
+        <v>266</v>
+      </c>
+      <c r="J105" t="s">
+        <v>266</v>
+      </c>
+      <c r="K105" t="s">
+        <v>266</v>
+      </c>
+      <c r="L105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>45873</v>
       </c>
@@ -3266,9 +4954,26 @@
       <c r="E106" s="8">
         <v>6.4599000000000002</v>
       </c>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H106">
+        <v>39.336199999999998</v>
+      </c>
+      <c r="I106" t="s">
+        <v>266</v>
+      </c>
+      <c r="J106" t="s">
+        <v>266</v>
+      </c>
+      <c r="K106" t="s">
+        <v>266</v>
+      </c>
+      <c r="L106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>45895</v>
       </c>
@@ -3284,8 +4989,26 @@
       <c r="E107" s="8">
         <v>0.60599999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>266</v>
+      </c>
+      <c r="H107" t="s">
+        <v>266</v>
+      </c>
+      <c r="I107" t="s">
+        <v>266</v>
+      </c>
+      <c r="J107" t="s">
+        <v>266</v>
+      </c>
+      <c r="K107" t="s">
+        <v>266</v>
+      </c>
+      <c r="L107" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>45895</v>
       </c>
@@ -3301,8 +5024,26 @@
       <c r="E108" s="8">
         <v>5.0785</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>266</v>
+      </c>
+      <c r="H108">
+        <v>17.721900000000002</v>
+      </c>
+      <c r="I108" t="s">
+        <v>266</v>
+      </c>
+      <c r="J108" t="s">
+        <v>266</v>
+      </c>
+      <c r="K108" t="s">
+        <v>266</v>
+      </c>
+      <c r="L108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>45895</v>
       </c>
@@ -3318,8 +5059,26 @@
       <c r="E109" s="8">
         <v>1.3904000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109">
+        <v>10.596</v>
+      </c>
+      <c r="I109" t="s">
+        <v>266</v>
+      </c>
+      <c r="J109" t="s">
+        <v>266</v>
+      </c>
+      <c r="K109" t="s">
+        <v>266</v>
+      </c>
+      <c r="L109" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>45895</v>
       </c>
@@ -3335,8 +5094,26 @@
       <c r="E110" s="8">
         <v>29.0124</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>266</v>
+      </c>
+      <c r="H110">
+        <v>56.835599999999999</v>
+      </c>
+      <c r="I110" t="s">
+        <v>266</v>
+      </c>
+      <c r="J110" t="s">
+        <v>266</v>
+      </c>
+      <c r="K110" t="s">
+        <v>266</v>
+      </c>
+      <c r="L110" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>45895</v>
       </c>
@@ -3355,8 +5132,26 @@
       <c r="F111" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>266</v>
+      </c>
+      <c r="H111">
+        <v>19.3689</v>
+      </c>
+      <c r="I111" t="s">
+        <v>266</v>
+      </c>
+      <c r="J111" t="s">
+        <v>266</v>
+      </c>
+      <c r="K111" t="s">
+        <v>266</v>
+      </c>
+      <c r="L111" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>45895</v>
       </c>
@@ -3372,8 +5167,26 @@
       <c r="E112" s="8">
         <v>90.037300000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>266</v>
+      </c>
+      <c r="H112">
+        <v>190.99160000000001</v>
+      </c>
+      <c r="I112" t="s">
+        <v>266</v>
+      </c>
+      <c r="J112" t="s">
+        <v>266</v>
+      </c>
+      <c r="K112" t="s">
+        <v>266</v>
+      </c>
+      <c r="L112" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>45895</v>
       </c>
@@ -3389,8 +5202,26 @@
       <c r="E113" s="8">
         <v>0.56110000000000004</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>266</v>
+      </c>
+      <c r="H113" t="s">
+        <v>266</v>
+      </c>
+      <c r="I113" t="s">
+        <v>266</v>
+      </c>
+      <c r="J113" t="s">
+        <v>266</v>
+      </c>
+      <c r="K113" t="s">
+        <v>266</v>
+      </c>
+      <c r="L113" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>45895</v>
       </c>
@@ -3406,8 +5237,26 @@
       <c r="E114" s="8">
         <v>7.2328999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>266</v>
+      </c>
+      <c r="H114">
+        <v>16.620899999999999</v>
+      </c>
+      <c r="I114" t="s">
+        <v>266</v>
+      </c>
+      <c r="J114" t="s">
+        <v>266</v>
+      </c>
+      <c r="K114" t="s">
+        <v>266</v>
+      </c>
+      <c r="L114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>45895</v>
       </c>
@@ -3423,8 +5272,26 @@
       <c r="E115" s="8">
         <v>0.77900000000000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>266</v>
+      </c>
+      <c r="H115">
+        <v>3.7174</v>
+      </c>
+      <c r="I115" t="s">
+        <v>266</v>
+      </c>
+      <c r="J115" t="s">
+        <v>266</v>
+      </c>
+      <c r="K115" t="s">
+        <v>266</v>
+      </c>
+      <c r="L115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>45895</v>
       </c>
@@ -3440,8 +5307,26 @@
       <c r="E116" s="8">
         <v>27.301300000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>266</v>
+      </c>
+      <c r="H116">
+        <v>53.488799999999998</v>
+      </c>
+      <c r="I116" t="s">
+        <v>266</v>
+      </c>
+      <c r="J116" t="s">
+        <v>266</v>
+      </c>
+      <c r="K116" t="s">
+        <v>266</v>
+      </c>
+      <c r="L116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>45895</v>
       </c>
@@ -3457,8 +5342,26 @@
       <c r="E117" s="8">
         <v>0.92290000000000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>266</v>
+      </c>
+      <c r="H117">
+        <v>11.8591</v>
+      </c>
+      <c r="I117" t="s">
+        <v>266</v>
+      </c>
+      <c r="J117" t="s">
+        <v>266</v>
+      </c>
+      <c r="K117" t="s">
+        <v>266</v>
+      </c>
+      <c r="L117" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>45895</v>
       </c>
@@ -3474,8 +5377,26 @@
       <c r="E118" s="8">
         <v>39.8748</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>266</v>
+      </c>
+      <c r="H118">
+        <v>74.101500000000001</v>
+      </c>
+      <c r="I118" t="s">
+        <v>266</v>
+      </c>
+      <c r="J118" t="s">
+        <v>266</v>
+      </c>
+      <c r="K118" t="s">
+        <v>266</v>
+      </c>
+      <c r="L118" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>45895</v>
       </c>
@@ -3491,8 +5412,26 @@
       <c r="E119" s="8">
         <v>14.2501</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>266</v>
+      </c>
+      <c r="H119">
+        <v>15.454000000000001</v>
+      </c>
+      <c r="I119" t="s">
+        <v>266</v>
+      </c>
+      <c r="J119" t="s">
+        <v>266</v>
+      </c>
+      <c r="K119" t="s">
+        <v>266</v>
+      </c>
+      <c r="L119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>45895</v>
       </c>
@@ -3508,8 +5447,26 @@
       <c r="E120" s="8">
         <v>110.9599</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>266</v>
+      </c>
+      <c r="H120">
+        <v>2.7305000000000001</v>
+      </c>
+      <c r="I120" t="s">
+        <v>266</v>
+      </c>
+      <c r="J120" t="s">
+        <v>266</v>
+      </c>
+      <c r="K120" t="s">
+        <v>266</v>
+      </c>
+      <c r="L120" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>45895</v>
       </c>
@@ -3525,8 +5482,26 @@
       <c r="E121" s="8">
         <v>55.488300000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>266</v>
+      </c>
+      <c r="H121">
+        <v>7.3564999999999996</v>
+      </c>
+      <c r="I121" t="s">
+        <v>266</v>
+      </c>
+      <c r="J121" t="s">
+        <v>266</v>
+      </c>
+      <c r="K121" t="s">
+        <v>266</v>
+      </c>
+      <c r="L121" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>45895</v>
       </c>
@@ -3542,8 +5517,26 @@
       <c r="E122" s="8">
         <v>0.71630000000000005</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>266</v>
+      </c>
+      <c r="H122" t="s">
+        <v>266</v>
+      </c>
+      <c r="I122" t="s">
+        <v>266</v>
+      </c>
+      <c r="J122" t="s">
+        <v>266</v>
+      </c>
+      <c r="K122" t="s">
+        <v>266</v>
+      </c>
+      <c r="L122" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>45895</v>
       </c>
@@ -3559,8 +5552,26 @@
       <c r="E123" s="8">
         <v>13.0189</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>266</v>
+      </c>
+      <c r="H123">
+        <v>17.9693</v>
+      </c>
+      <c r="I123" t="s">
+        <v>266</v>
+      </c>
+      <c r="J123" t="s">
+        <v>266</v>
+      </c>
+      <c r="K123" t="s">
+        <v>266</v>
+      </c>
+      <c r="L123" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>45895</v>
       </c>
@@ -3576,8 +5587,26 @@
       <c r="E124" s="8">
         <v>0.86950000000000005</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>266</v>
+      </c>
+      <c r="H124">
+        <v>1.4816</v>
+      </c>
+      <c r="I124" t="s">
+        <v>266</v>
+      </c>
+      <c r="J124" t="s">
+        <v>266</v>
+      </c>
+      <c r="K124" t="s">
+        <v>266</v>
+      </c>
+      <c r="L124" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>45895</v>
       </c>
@@ -3593,8 +5622,26 @@
       <c r="E125" s="8">
         <v>90.275499999999994</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>266</v>
+      </c>
+      <c r="H125">
+        <v>20.684200000000001</v>
+      </c>
+      <c r="I125" t="s">
+        <v>266</v>
+      </c>
+      <c r="J125" t="s">
+        <v>266</v>
+      </c>
+      <c r="K125" t="s">
+        <v>266</v>
+      </c>
+      <c r="L125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>45895</v>
       </c>
@@ -3610,8 +5657,26 @@
       <c r="E126" s="8">
         <v>37.047600000000003</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>266</v>
+      </c>
+      <c r="H126">
+        <v>34.020299999999999</v>
+      </c>
+      <c r="I126" t="s">
+        <v>266</v>
+      </c>
+      <c r="J126" t="s">
+        <v>266</v>
+      </c>
+      <c r="K126" t="s">
+        <v>266</v>
+      </c>
+      <c r="L126" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>45895</v>
       </c>
@@ -3627,8 +5692,26 @@
       <c r="E127" s="8">
         <v>88.588200000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>266</v>
+      </c>
+      <c r="H127">
+        <v>35.747599999999998</v>
+      </c>
+      <c r="I127" t="s">
+        <v>266</v>
+      </c>
+      <c r="J127" t="s">
+        <v>266</v>
+      </c>
+      <c r="K127" t="s">
+        <v>266</v>
+      </c>
+      <c r="L127" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>45895</v>
       </c>
@@ -3644,8 +5727,26 @@
       <c r="E128" s="8">
         <v>35.521999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>266</v>
+      </c>
+      <c r="H128">
+        <v>43.5518</v>
+      </c>
+      <c r="I128" t="s">
+        <v>266</v>
+      </c>
+      <c r="J128" t="s">
+        <v>266</v>
+      </c>
+      <c r="K128" t="s">
+        <v>266</v>
+      </c>
+      <c r="L128" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>45895</v>
       </c>
@@ -3661,8 +5762,26 @@
       <c r="E129" s="8">
         <v>1.0005999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>266</v>
+      </c>
+      <c r="H129">
+        <v>8.1532999999999998</v>
+      </c>
+      <c r="I129" t="s">
+        <v>266</v>
+      </c>
+      <c r="J129" t="s">
+        <v>266</v>
+      </c>
+      <c r="K129" t="s">
+        <v>266</v>
+      </c>
+      <c r="L129" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>45895</v>
       </c>
@@ -3678,8 +5797,26 @@
       <c r="E130" s="8">
         <v>51.753500000000003</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>266</v>
+      </c>
+      <c r="H130">
+        <v>49.9955</v>
+      </c>
+      <c r="I130" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" t="s">
+        <v>266</v>
+      </c>
+      <c r="K130" t="s">
+        <v>266</v>
+      </c>
+      <c r="L130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>45895</v>
       </c>
@@ -3695,8 +5832,26 @@
       <c r="E131" s="8">
         <v>78.950199999999995</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>266</v>
+      </c>
+      <c r="H131">
+        <v>35.244599999999998</v>
+      </c>
+      <c r="I131" t="s">
+        <v>266</v>
+      </c>
+      <c r="J131" t="s">
+        <v>266</v>
+      </c>
+      <c r="K131" t="s">
+        <v>266</v>
+      </c>
+      <c r="L131" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>45895</v>
       </c>
@@ -3712,8 +5867,26 @@
       <c r="E132" s="8">
         <v>62.507199999999997</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>266</v>
+      </c>
+      <c r="H132">
+        <v>7.5412999999999997</v>
+      </c>
+      <c r="I132" t="s">
+        <v>266</v>
+      </c>
+      <c r="J132" t="s">
+        <v>266</v>
+      </c>
+      <c r="K132" t="s">
+        <v>266</v>
+      </c>
+      <c r="L132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>45895</v>
       </c>
@@ -3729,8 +5902,26 @@
       <c r="E133" s="8">
         <v>34.523699999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>266</v>
+      </c>
+      <c r="H133">
+        <v>15.9046</v>
+      </c>
+      <c r="I133" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" t="s">
+        <v>266</v>
+      </c>
+      <c r="K133" t="s">
+        <v>266</v>
+      </c>
+      <c r="L133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>45895</v>
       </c>
@@ -3746,8 +5937,26 @@
       <c r="E134" s="8">
         <v>13.7316</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>266</v>
+      </c>
+      <c r="H134">
+        <v>15.1327</v>
+      </c>
+      <c r="I134" t="s">
+        <v>266</v>
+      </c>
+      <c r="J134" t="s">
+        <v>266</v>
+      </c>
+      <c r="K134" t="s">
+        <v>266</v>
+      </c>
+      <c r="L134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>45895</v>
       </c>
@@ -3763,8 +5972,26 @@
       <c r="E135" s="8">
         <v>109.7448</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>266</v>
+      </c>
+      <c r="H135" t="s">
+        <v>266</v>
+      </c>
+      <c r="I135" t="s">
+        <v>266</v>
+      </c>
+      <c r="J135" t="s">
+        <v>266</v>
+      </c>
+      <c r="K135" t="s">
+        <v>266</v>
+      </c>
+      <c r="L135" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>45891</v>
       </c>
@@ -3780,8 +6007,26 @@
       <c r="E136" s="8">
         <v>76.893500000000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>266</v>
+      </c>
+      <c r="H136">
+        <v>2.0072000000000001</v>
+      </c>
+      <c r="I136" t="s">
+        <v>266</v>
+      </c>
+      <c r="J136" t="s">
+        <v>266</v>
+      </c>
+      <c r="K136" t="s">
+        <v>266</v>
+      </c>
+      <c r="L136" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>45891</v>
       </c>
@@ -3797,8 +6042,26 @@
       <c r="E137" s="8">
         <v>0.51919999999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>266</v>
+      </c>
+      <c r="H137" t="s">
+        <v>266</v>
+      </c>
+      <c r="I137" t="s">
+        <v>266</v>
+      </c>
+      <c r="J137" t="s">
+        <v>266</v>
+      </c>
+      <c r="K137" t="s">
+        <v>266</v>
+      </c>
+      <c r="L137" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>45891</v>
       </c>
@@ -3814,8 +6077,26 @@
       <c r="E138" s="8">
         <v>9.8678000000000008</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>266</v>
+      </c>
+      <c r="H138">
+        <v>2.0217999999999998</v>
+      </c>
+      <c r="I138" t="s">
+        <v>266</v>
+      </c>
+      <c r="J138" t="s">
+        <v>266</v>
+      </c>
+      <c r="K138" t="s">
+        <v>266</v>
+      </c>
+      <c r="L138" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>45895</v>
       </c>
@@ -3831,8 +6112,26 @@
       <c r="E139" s="8">
         <v>0.60340000000000005</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>266</v>
+      </c>
+      <c r="H139" t="s">
+        <v>266</v>
+      </c>
+      <c r="I139" t="s">
+        <v>266</v>
+      </c>
+      <c r="J139" t="s">
+        <v>266</v>
+      </c>
+      <c r="K139" t="s">
+        <v>266</v>
+      </c>
+      <c r="L139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>45895</v>
       </c>
@@ -3848,8 +6147,26 @@
       <c r="E140" s="8">
         <v>25.796399999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>266</v>
+      </c>
+      <c r="H140">
+        <v>2.8862000000000001</v>
+      </c>
+      <c r="I140" t="s">
+        <v>266</v>
+      </c>
+      <c r="J140" t="s">
+        <v>266</v>
+      </c>
+      <c r="K140" t="s">
+        <v>266</v>
+      </c>
+      <c r="L140" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>45895</v>
       </c>
@@ -3865,8 +6182,26 @@
       <c r="E141" s="8">
         <v>53.767800000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>266</v>
+      </c>
+      <c r="H141">
+        <v>25.029800000000002</v>
+      </c>
+      <c r="I141" t="s">
+        <v>266</v>
+      </c>
+      <c r="J141" t="s">
+        <v>266</v>
+      </c>
+      <c r="K141" t="s">
+        <v>266</v>
+      </c>
+      <c r="L141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>45895</v>
       </c>
@@ -3882,8 +6217,26 @@
       <c r="E142" s="8">
         <v>46.4803</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>266</v>
+      </c>
+      <c r="H142">
+        <v>8.8215000000000003</v>
+      </c>
+      <c r="I142" t="s">
+        <v>266</v>
+      </c>
+      <c r="J142" t="s">
+        <v>266</v>
+      </c>
+      <c r="K142" t="s">
+        <v>266</v>
+      </c>
+      <c r="L142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>45895</v>
       </c>
@@ -3899,8 +6252,26 @@
       <c r="E143" s="8">
         <v>5.8308</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>266</v>
+      </c>
+      <c r="H143">
+        <v>10.8447</v>
+      </c>
+      <c r="I143" t="s">
+        <v>266</v>
+      </c>
+      <c r="J143" t="s">
+        <v>266</v>
+      </c>
+      <c r="K143" t="s">
+        <v>266</v>
+      </c>
+      <c r="L143" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>45895</v>
       </c>
@@ -3916,8 +6287,26 @@
       <c r="E144" s="8">
         <v>0.63280000000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>266</v>
+      </c>
+      <c r="H144" t="s">
+        <v>266</v>
+      </c>
+      <c r="I144" t="s">
+        <v>266</v>
+      </c>
+      <c r="J144" t="s">
+        <v>266</v>
+      </c>
+      <c r="K144" t="s">
+        <v>266</v>
+      </c>
+      <c r="L144" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>45895</v>
       </c>
@@ -3933,8 +6322,26 @@
       <c r="E145" s="8">
         <v>13.351100000000001</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>266</v>
+      </c>
+      <c r="H145">
+        <v>18.298500000000001</v>
+      </c>
+      <c r="I145" t="s">
+        <v>266</v>
+      </c>
+      <c r="J145" t="s">
+        <v>266</v>
+      </c>
+      <c r="K145" t="s">
+        <v>266</v>
+      </c>
+      <c r="L145" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>45895</v>
       </c>
@@ -3950,8 +6357,26 @@
       <c r="E146" s="8">
         <v>15.0213</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>266</v>
+      </c>
+      <c r="H146">
+        <v>1.6736</v>
+      </c>
+      <c r="I146" t="s">
+        <v>266</v>
+      </c>
+      <c r="J146" t="s">
+        <v>266</v>
+      </c>
+      <c r="K146" t="s">
+        <v>266</v>
+      </c>
+      <c r="L146" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>45895</v>
       </c>
@@ -3967,8 +6392,26 @@
       <c r="E147" s="8">
         <v>19.979399999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>266</v>
+      </c>
+      <c r="H147" t="s">
+        <v>266</v>
+      </c>
+      <c r="I147" t="s">
+        <v>266</v>
+      </c>
+      <c r="J147" t="s">
+        <v>266</v>
+      </c>
+      <c r="K147" t="s">
+        <v>266</v>
+      </c>
+      <c r="L147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>45895</v>
       </c>
@@ -3984,8 +6427,26 @@
       <c r="E148" s="8">
         <v>11.468999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>266</v>
+      </c>
+      <c r="H148" t="s">
+        <v>266</v>
+      </c>
+      <c r="I148" t="s">
+        <v>266</v>
+      </c>
+      <c r="J148" t="s">
+        <v>266</v>
+      </c>
+      <c r="K148" t="s">
+        <v>266</v>
+      </c>
+      <c r="L148" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>45891</v>
       </c>
@@ -4001,8 +6462,26 @@
       <c r="E149" s="19">
         <v>80.574600000000004</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>266</v>
+      </c>
+      <c r="H149">
+        <v>30.740400000000001</v>
+      </c>
+      <c r="I149" t="s">
+        <v>266</v>
+      </c>
+      <c r="J149" t="s">
+        <v>266</v>
+      </c>
+      <c r="K149" t="s">
+        <v>266</v>
+      </c>
+      <c r="L149" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>45891</v>
       </c>
@@ -4018,8 +6497,26 @@
       <c r="E150" s="8">
         <v>296.86239999999998</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>266</v>
+      </c>
+      <c r="H150" t="s">
+        <v>266</v>
+      </c>
+      <c r="I150" t="s">
+        <v>266</v>
+      </c>
+      <c r="J150" t="s">
+        <v>266</v>
+      </c>
+      <c r="K150" t="s">
+        <v>266</v>
+      </c>
+      <c r="L150" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>45891</v>
       </c>
@@ -4035,8 +6532,26 @@
       <c r="E151" s="8">
         <v>106.8644</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>266</v>
+      </c>
+      <c r="H151" t="s">
+        <v>266</v>
+      </c>
+      <c r="I151" t="s">
+        <v>266</v>
+      </c>
+      <c r="J151" t="s">
+        <v>266</v>
+      </c>
+      <c r="K151" t="s">
+        <v>266</v>
+      </c>
+      <c r="L151" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>45891</v>
       </c>
@@ -4052,8 +6567,26 @@
       <c r="E152" s="8">
         <v>0.56950000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>266</v>
+      </c>
+      <c r="H152" t="s">
+        <v>266</v>
+      </c>
+      <c r="I152" t="s">
+        <v>266</v>
+      </c>
+      <c r="J152" t="s">
+        <v>266</v>
+      </c>
+      <c r="K152" t="s">
+        <v>266</v>
+      </c>
+      <c r="L152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>45891</v>
       </c>
@@ -4069,8 +6602,26 @@
       <c r="E153" s="8">
         <v>11.6029</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>266</v>
+      </c>
+      <c r="H153" t="s">
+        <v>266</v>
+      </c>
+      <c r="I153" t="s">
+        <v>266</v>
+      </c>
+      <c r="J153" t="s">
+        <v>266</v>
+      </c>
+      <c r="K153" t="s">
+        <v>266</v>
+      </c>
+      <c r="L153" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>45891</v>
       </c>
@@ -4086,8 +6637,26 @@
       <c r="E154" s="8">
         <v>3.1934</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>266</v>
+      </c>
+      <c r="H154" t="s">
+        <v>266</v>
+      </c>
+      <c r="I154" t="s">
+        <v>266</v>
+      </c>
+      <c r="J154" t="s">
+        <v>266</v>
+      </c>
+      <c r="K154" t="s">
+        <v>266</v>
+      </c>
+      <c r="L154" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>45891</v>
       </c>
@@ -4103,8 +6672,26 @@
       <c r="E155" s="8">
         <v>85.381</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>266</v>
+      </c>
+      <c r="H155" t="s">
+        <v>266</v>
+      </c>
+      <c r="I155" t="s">
+        <v>266</v>
+      </c>
+      <c r="J155" t="s">
+        <v>266</v>
+      </c>
+      <c r="K155" t="s">
+        <v>266</v>
+      </c>
+      <c r="L155" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>45891</v>
       </c>
@@ -4120,8 +6707,26 @@
       <c r="E156" s="8">
         <v>153.66</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>266</v>
+      </c>
+      <c r="H156">
+        <v>8.0803999999999991</v>
+      </c>
+      <c r="I156" t="s">
+        <v>266</v>
+      </c>
+      <c r="J156" t="s">
+        <v>266</v>
+      </c>
+      <c r="K156" t="s">
+        <v>266</v>
+      </c>
+      <c r="L156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>45891</v>
       </c>
@@ -4137,8 +6742,26 @@
       <c r="E157" s="8">
         <v>175.3349</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>266</v>
+      </c>
+      <c r="H157">
+        <v>3.0461</v>
+      </c>
+      <c r="I157" t="s">
+        <v>266</v>
+      </c>
+      <c r="J157" t="s">
+        <v>266</v>
+      </c>
+      <c r="K157" t="s">
+        <v>266</v>
+      </c>
+      <c r="L157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>45891</v>
       </c>
@@ -4154,8 +6777,26 @@
       <c r="E158" s="8">
         <v>49.4621</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>266</v>
+      </c>
+      <c r="H158">
+        <v>20.1861</v>
+      </c>
+      <c r="I158" t="s">
+        <v>266</v>
+      </c>
+      <c r="J158" t="s">
+        <v>266</v>
+      </c>
+      <c r="K158" t="s">
+        <v>266</v>
+      </c>
+      <c r="L158" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>45891</v>
       </c>
@@ -4171,8 +6812,26 @@
       <c r="E159" s="8">
         <v>3.532</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>266</v>
+      </c>
+      <c r="H159" t="s">
+        <v>266</v>
+      </c>
+      <c r="I159" t="s">
+        <v>266</v>
+      </c>
+      <c r="J159" t="s">
+        <v>266</v>
+      </c>
+      <c r="K159" t="s">
+        <v>266</v>
+      </c>
+      <c r="L159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>45891</v>
       </c>
@@ -4188,8 +6847,26 @@
       <c r="E160" s="8">
         <v>35.380800000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>266</v>
+      </c>
+      <c r="H160">
+        <v>17.4146</v>
+      </c>
+      <c r="I160" t="s">
+        <v>266</v>
+      </c>
+      <c r="J160" t="s">
+        <v>266</v>
+      </c>
+      <c r="K160" t="s">
+        <v>266</v>
+      </c>
+      <c r="L160" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>45891</v>
       </c>
@@ -4205,8 +6882,26 @@
       <c r="E161" s="8">
         <v>165.14570000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>266</v>
+      </c>
+      <c r="H161" t="s">
+        <v>266</v>
+      </c>
+      <c r="I161" t="s">
+        <v>266</v>
+      </c>
+      <c r="J161" t="s">
+        <v>266</v>
+      </c>
+      <c r="K161" t="s">
+        <v>266</v>
+      </c>
+      <c r="L161" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>45891</v>
       </c>
@@ -4222,8 +6917,26 @@
       <c r="E162" s="8">
         <v>118.71939999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>266</v>
+      </c>
+      <c r="H162">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="I162" t="s">
+        <v>266</v>
+      </c>
+      <c r="J162" t="s">
+        <v>266</v>
+      </c>
+      <c r="K162" t="s">
+        <v>266</v>
+      </c>
+      <c r="L162" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>45891</v>
       </c>
@@ -4239,8 +6952,26 @@
       <c r="E163" s="8">
         <v>39.7941</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>266</v>
+      </c>
+      <c r="H163" t="s">
+        <v>266</v>
+      </c>
+      <c r="I163" t="s">
+        <v>266</v>
+      </c>
+      <c r="J163" t="s">
+        <v>266</v>
+      </c>
+      <c r="K163" t="s">
+        <v>266</v>
+      </c>
+      <c r="L163" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>45891</v>
       </c>
@@ -4256,8 +6987,26 @@
       <c r="E164" s="8">
         <v>52.549700000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>266</v>
+      </c>
+      <c r="H164">
+        <v>8.6196999999999999</v>
+      </c>
+      <c r="I164" t="s">
+        <v>266</v>
+      </c>
+      <c r="J164" t="s">
+        <v>266</v>
+      </c>
+      <c r="K164" t="s">
+        <v>266</v>
+      </c>
+      <c r="L164" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>45891</v>
       </c>
@@ -4273,8 +7022,26 @@
       <c r="E165" s="8">
         <v>174.3108</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>266</v>
+      </c>
+      <c r="H165" t="s">
+        <v>266</v>
+      </c>
+      <c r="I165" t="s">
+        <v>266</v>
+      </c>
+      <c r="J165" t="s">
+        <v>266</v>
+      </c>
+      <c r="K165" t="s">
+        <v>266</v>
+      </c>
+      <c r="L165" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>45891</v>
       </c>
@@ -4290,8 +7057,26 @@
       <c r="E166" s="8">
         <v>57.384799999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>266</v>
+      </c>
+      <c r="H166" t="s">
+        <v>266</v>
+      </c>
+      <c r="I166" t="s">
+        <v>266</v>
+      </c>
+      <c r="J166" t="s">
+        <v>266</v>
+      </c>
+      <c r="K166" t="s">
+        <v>266</v>
+      </c>
+      <c r="L166" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>45891</v>
       </c>
@@ -4307,8 +7092,26 @@
       <c r="E167" s="8">
         <v>0.4486</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>266</v>
+      </c>
+      <c r="H167" t="s">
+        <v>266</v>
+      </c>
+      <c r="I167" t="s">
+        <v>266</v>
+      </c>
+      <c r="J167" t="s">
+        <v>266</v>
+      </c>
+      <c r="K167" t="s">
+        <v>266</v>
+      </c>
+      <c r="L167" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>45891</v>
       </c>
@@ -4324,8 +7127,26 @@
       <c r="E168" s="8">
         <v>6.5094000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>266</v>
+      </c>
+      <c r="H168" t="s">
+        <v>266</v>
+      </c>
+      <c r="I168" t="s">
+        <v>266</v>
+      </c>
+      <c r="J168" t="s">
+        <v>266</v>
+      </c>
+      <c r="K168" t="s">
+        <v>266</v>
+      </c>
+      <c r="L168" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>45891</v>
       </c>
@@ -4341,8 +7162,26 @@
       <c r="E169" s="8">
         <v>0.41689999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>266</v>
+      </c>
+      <c r="H169" t="s">
+        <v>266</v>
+      </c>
+      <c r="I169" t="s">
+        <v>266</v>
+      </c>
+      <c r="J169" t="s">
+        <v>266</v>
+      </c>
+      <c r="K169" t="s">
+        <v>266</v>
+      </c>
+      <c r="L169" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>45891</v>
       </c>
@@ -4358,8 +7197,26 @@
       <c r="E170" s="8">
         <v>57.305999999999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>266</v>
+      </c>
+      <c r="H170" t="s">
+        <v>266</v>
+      </c>
+      <c r="I170" t="s">
+        <v>266</v>
+      </c>
+      <c r="J170" t="s">
+        <v>266</v>
+      </c>
+      <c r="K170" t="s">
+        <v>266</v>
+      </c>
+      <c r="L170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
         <v>45891</v>
       </c>
@@ -4375,8 +7232,26 @@
       <c r="E171" s="8">
         <v>78.040800000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>266</v>
+      </c>
+      <c r="H171" t="s">
+        <v>266</v>
+      </c>
+      <c r="I171" t="s">
+        <v>266</v>
+      </c>
+      <c r="J171" t="s">
+        <v>266</v>
+      </c>
+      <c r="K171" t="s">
+        <v>266</v>
+      </c>
+      <c r="L171" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>45891</v>
       </c>
@@ -4392,8 +7267,26 @@
       <c r="E172" s="8">
         <v>113.92740000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>266</v>
+      </c>
+      <c r="H172" t="s">
+        <v>266</v>
+      </c>
+      <c r="I172" t="s">
+        <v>266</v>
+      </c>
+      <c r="J172" t="s">
+        <v>266</v>
+      </c>
+      <c r="K172" t="s">
+        <v>266</v>
+      </c>
+      <c r="L172" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>45891</v>
       </c>
@@ -4409,8 +7302,26 @@
       <c r="E173" s="8">
         <v>29.694099999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>266</v>
+      </c>
+      <c r="H173">
+        <v>17.131900000000002</v>
+      </c>
+      <c r="I173" t="s">
+        <v>266</v>
+      </c>
+      <c r="J173" t="s">
+        <v>266</v>
+      </c>
+      <c r="K173" t="s">
+        <v>266</v>
+      </c>
+      <c r="L173" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>45891</v>
       </c>
@@ -4426,8 +7337,26 @@
       <c r="E174" s="8">
         <v>3.2526000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>266</v>
+      </c>
+      <c r="H174" t="s">
+        <v>266</v>
+      </c>
+      <c r="I174" t="s">
+        <v>266</v>
+      </c>
+      <c r="J174" t="s">
+        <v>266</v>
+      </c>
+      <c r="K174" t="s">
+        <v>266</v>
+      </c>
+      <c r="L174" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>45891</v>
       </c>
@@ -4443,8 +7372,26 @@
       <c r="E175" s="8">
         <v>13.0489</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>266</v>
+      </c>
+      <c r="H175">
+        <v>1.1835</v>
+      </c>
+      <c r="I175" t="s">
+        <v>266</v>
+      </c>
+      <c r="J175" t="s">
+        <v>266</v>
+      </c>
+      <c r="K175" t="s">
+        <v>266</v>
+      </c>
+      <c r="L175" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>45891</v>
       </c>
@@ -4460,8 +7407,26 @@
       <c r="E176" s="8">
         <v>73.614800000000002</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>266</v>
+      </c>
+      <c r="H176" t="s">
+        <v>266</v>
+      </c>
+      <c r="I176" t="s">
+        <v>266</v>
+      </c>
+      <c r="J176" t="s">
+        <v>266</v>
+      </c>
+      <c r="K176" t="s">
+        <v>266</v>
+      </c>
+      <c r="L176" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>45891</v>
       </c>
@@ -4477,8 +7442,26 @@
       <c r="E177" s="8">
         <v>58.408700000000003</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>266</v>
+      </c>
+      <c r="H177">
+        <v>1.746</v>
+      </c>
+      <c r="I177" t="s">
+        <v>266</v>
+      </c>
+      <c r="J177" t="s">
+        <v>266</v>
+      </c>
+      <c r="K177" t="s">
+        <v>266</v>
+      </c>
+      <c r="L177" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>45891</v>
       </c>
@@ -4494,8 +7477,26 @@
       <c r="E178" s="8">
         <v>21.276900000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>266</v>
+      </c>
+      <c r="H178" t="s">
+        <v>266</v>
+      </c>
+      <c r="I178" t="s">
+        <v>266</v>
+      </c>
+      <c r="J178" t="s">
+        <v>266</v>
+      </c>
+      <c r="K178" t="s">
+        <v>266</v>
+      </c>
+      <c r="L178" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>45904</v>
       </c>
@@ -4511,8 +7512,23 @@
       <c r="E179" s="8">
         <v>8.0286000000000008</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>266</v>
+      </c>
+      <c r="H179" t="s">
+        <v>266</v>
+      </c>
+      <c r="I179" t="s">
+        <v>266</v>
+      </c>
+      <c r="K179" t="s">
+        <v>266</v>
+      </c>
+      <c r="L179" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>45904</v>
       </c>
@@ -4528,8 +7544,23 @@
       <c r="E180" s="8">
         <v>29.1143</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>266</v>
+      </c>
+      <c r="H180" t="s">
+        <v>266</v>
+      </c>
+      <c r="I180" t="s">
+        <v>266</v>
+      </c>
+      <c r="K180" t="s">
+        <v>266</v>
+      </c>
+      <c r="L180" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>45904</v>
       </c>
@@ -4545,8 +7576,23 @@
       <c r="E181" s="8">
         <v>12.5053</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>266</v>
+      </c>
+      <c r="H181" t="s">
+        <v>266</v>
+      </c>
+      <c r="I181" t="s">
+        <v>266</v>
+      </c>
+      <c r="K181" t="s">
+        <v>266</v>
+      </c>
+      <c r="L181" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>45904</v>
       </c>
@@ -4562,8 +7608,23 @@
       <c r="E182" s="8">
         <v>0.33689999999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="H182" t="s">
+        <v>266</v>
+      </c>
+      <c r="I182" t="s">
+        <v>266</v>
+      </c>
+      <c r="K182" t="s">
+        <v>266</v>
+      </c>
+      <c r="L182" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>45904</v>
       </c>
@@ -4579,8 +7640,23 @@
       <c r="E183" s="8">
         <v>0.38969999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="H183" t="s">
+        <v>266</v>
+      </c>
+      <c r="I183" t="s">
+        <v>266</v>
+      </c>
+      <c r="K183" t="s">
+        <v>266</v>
+      </c>
+      <c r="L183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>45904</v>
       </c>
@@ -4596,8 +7672,23 @@
       <c r="E184" s="8">
         <v>0.40339999999999998</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>266</v>
+      </c>
+      <c r="H184" t="s">
+        <v>266</v>
+      </c>
+      <c r="I184" t="s">
+        <v>266</v>
+      </c>
+      <c r="K184" t="s">
+        <v>266</v>
+      </c>
+      <c r="L184" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>45904</v>
       </c>
@@ -4613,8 +7704,23 @@
       <c r="E185" s="8">
         <v>6.7070999999999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>266</v>
+      </c>
+      <c r="H185" t="s">
+        <v>266</v>
+      </c>
+      <c r="I185" t="s">
+        <v>266</v>
+      </c>
+      <c r="K185" t="s">
+        <v>266</v>
+      </c>
+      <c r="L185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>45904</v>
       </c>
@@ -4630,8 +7736,23 @@
       <c r="E186" s="8">
         <v>37.5124</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>266</v>
+      </c>
+      <c r="H186" t="s">
+        <v>266</v>
+      </c>
+      <c r="I186" t="s">
+        <v>266</v>
+      </c>
+      <c r="K186" t="s">
+        <v>266</v>
+      </c>
+      <c r="L186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>45904</v>
       </c>
@@ -4647,8 +7768,23 @@
       <c r="E187" s="8">
         <v>53.008899999999997</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>266</v>
+      </c>
+      <c r="H187" t="s">
+        <v>266</v>
+      </c>
+      <c r="I187" t="s">
+        <v>266</v>
+      </c>
+      <c r="K187" t="s">
+        <v>266</v>
+      </c>
+      <c r="L187" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>45904</v>
       </c>
@@ -4664,8 +7800,23 @@
       <c r="E188" s="8">
         <v>4.1106999999999996</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>266</v>
+      </c>
+      <c r="H188" t="s">
+        <v>266</v>
+      </c>
+      <c r="I188" t="s">
+        <v>266</v>
+      </c>
+      <c r="K188" t="s">
+        <v>266</v>
+      </c>
+      <c r="L188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>45904</v>
       </c>
@@ -4681,8 +7832,23 @@
       <c r="E189" s="8">
         <v>0.3926</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>266</v>
+      </c>
+      <c r="H189" t="s">
+        <v>266</v>
+      </c>
+      <c r="I189" t="s">
+        <v>266</v>
+      </c>
+      <c r="K189" t="s">
+        <v>266</v>
+      </c>
+      <c r="L189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>45904</v>
       </c>
@@ -4698,8 +7864,23 @@
       <c r="E190" s="8">
         <v>0.90649999999999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>266</v>
+      </c>
+      <c r="H190" t="s">
+        <v>266</v>
+      </c>
+      <c r="I190" t="s">
+        <v>266</v>
+      </c>
+      <c r="K190" t="s">
+        <v>266</v>
+      </c>
+      <c r="L190" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>45904</v>
       </c>
@@ -4715,8 +7896,23 @@
       <c r="E191" s="8">
         <v>27.5228</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>266</v>
+      </c>
+      <c r="H191" t="s">
+        <v>266</v>
+      </c>
+      <c r="I191" t="s">
+        <v>266</v>
+      </c>
+      <c r="K191" t="s">
+        <v>266</v>
+      </c>
+      <c r="L191" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>45904</v>
       </c>
@@ -4732,8 +7928,23 @@
       <c r="E192" s="8">
         <v>21.545200000000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>266</v>
+      </c>
+      <c r="H192" t="s">
+        <v>266</v>
+      </c>
+      <c r="I192" t="s">
+        <v>266</v>
+      </c>
+      <c r="K192" t="s">
+        <v>266</v>
+      </c>
+      <c r="L192" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>45904</v>
       </c>
@@ -4749,8 +7960,23 @@
       <c r="E193" s="8">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>266</v>
+      </c>
+      <c r="H193" t="s">
+        <v>266</v>
+      </c>
+      <c r="I193" t="s">
+        <v>266</v>
+      </c>
+      <c r="K193" t="s">
+        <v>266</v>
+      </c>
+      <c r="L193" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>45904</v>
       </c>
@@ -4766,8 +7992,23 @@
       <c r="E194" s="8">
         <v>24.830200000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>266</v>
+      </c>
+      <c r="H194">
+        <v>6.3262</v>
+      </c>
+      <c r="I194" t="s">
+        <v>266</v>
+      </c>
+      <c r="K194" t="s">
+        <v>266</v>
+      </c>
+      <c r="L194" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>45904</v>
       </c>
@@ -4783,8 +8024,23 @@
       <c r="E195" s="8">
         <v>38.687100000000001</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>266</v>
+      </c>
+      <c r="H195" t="s">
+        <v>266</v>
+      </c>
+      <c r="I195" t="s">
+        <v>266</v>
+      </c>
+      <c r="K195" t="s">
+        <v>266</v>
+      </c>
+      <c r="L195" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>45904</v>
       </c>
@@ -4800,8 +8056,23 @@
       <c r="E196" s="8">
         <v>8.4507999999999992</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>266</v>
+      </c>
+      <c r="H196">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="I196" t="s">
+        <v>266</v>
+      </c>
+      <c r="K196" t="s">
+        <v>266</v>
+      </c>
+      <c r="L196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>45904</v>
       </c>
@@ -4817,8 +8088,23 @@
       <c r="E197" s="8">
         <v>0.36770000000000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>266</v>
+      </c>
+      <c r="H197" t="s">
+        <v>266</v>
+      </c>
+      <c r="I197" t="s">
+        <v>266</v>
+      </c>
+      <c r="K197" t="s">
+        <v>266</v>
+      </c>
+      <c r="L197" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>45904</v>
       </c>
@@ -4834,8 +8120,23 @@
       <c r="E198" s="8">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>266</v>
+      </c>
+      <c r="H198" t="s">
+        <v>266</v>
+      </c>
+      <c r="I198" t="s">
+        <v>266</v>
+      </c>
+      <c r="K198" t="s">
+        <v>266</v>
+      </c>
+      <c r="L198" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>45904</v>
       </c>
@@ -4851,8 +8152,23 @@
       <c r="E199" s="8">
         <v>0.35449999999999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>266</v>
+      </c>
+      <c r="H199" t="s">
+        <v>266</v>
+      </c>
+      <c r="I199" t="s">
+        <v>266</v>
+      </c>
+      <c r="K199" t="s">
+        <v>266</v>
+      </c>
+      <c r="L199" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>45904</v>
       </c>
@@ -4868,8 +8184,23 @@
       <c r="E200" s="8">
         <v>2.7978999999999998</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>266</v>
+      </c>
+      <c r="H200" t="s">
+        <v>266</v>
+      </c>
+      <c r="I200" t="s">
+        <v>266</v>
+      </c>
+      <c r="K200" t="s">
+        <v>266</v>
+      </c>
+      <c r="L200" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>45904</v>
       </c>
@@ -4885,8 +8216,23 @@
       <c r="E201" s="8">
         <v>13.646100000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>266</v>
+      </c>
+      <c r="H201" t="s">
+        <v>266</v>
+      </c>
+      <c r="I201" t="s">
+        <v>266</v>
+      </c>
+      <c r="K201" t="s">
+        <v>266</v>
+      </c>
+      <c r="L201" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>45904</v>
       </c>
@@ -4902,8 +8248,23 @@
       <c r="E202" s="8">
         <v>17.157900000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>266</v>
+      </c>
+      <c r="H202" t="s">
+        <v>266</v>
+      </c>
+      <c r="I202" t="s">
+        <v>266</v>
+      </c>
+      <c r="K202" t="s">
+        <v>266</v>
+      </c>
+      <c r="L202" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>45904</v>
       </c>
@@ -4919,8 +8280,23 @@
       <c r="E203" s="8">
         <v>4.1208999999999998</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>266</v>
+      </c>
+      <c r="H203" t="s">
+        <v>266</v>
+      </c>
+      <c r="I203" t="s">
+        <v>266</v>
+      </c>
+      <c r="K203" t="s">
+        <v>266</v>
+      </c>
+      <c r="L203" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>45904</v>
       </c>
@@ -4936,8 +8312,23 @@
       <c r="E204" s="8">
         <v>0.43419999999999997</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>266</v>
+      </c>
+      <c r="H204" t="s">
+        <v>266</v>
+      </c>
+      <c r="I204" t="s">
+        <v>266</v>
+      </c>
+      <c r="K204" t="s">
+        <v>266</v>
+      </c>
+      <c r="L204" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>45904</v>
       </c>
@@ -4953,8 +8344,23 @@
       <c r="E205" s="8">
         <v>0.498</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>266</v>
+      </c>
+      <c r="H205" t="s">
+        <v>266</v>
+      </c>
+      <c r="I205" t="s">
+        <v>266</v>
+      </c>
+      <c r="K205" t="s">
+        <v>266</v>
+      </c>
+      <c r="L205" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>45904</v>
       </c>
@@ -4970,8 +8376,23 @@
       <c r="E206" s="8">
         <v>14.903499999999999</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>266</v>
+      </c>
+      <c r="H206" t="s">
+        <v>266</v>
+      </c>
+      <c r="I206" t="s">
+        <v>266</v>
+      </c>
+      <c r="K206" t="s">
+        <v>266</v>
+      </c>
+      <c r="L206" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>45904</v>
       </c>
@@ -4987,8 +8408,23 @@
       <c r="E207" s="8">
         <v>11.59</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>266</v>
+      </c>
+      <c r="H207" t="s">
+        <v>266</v>
+      </c>
+      <c r="I207" t="s">
+        <v>266</v>
+      </c>
+      <c r="K207" t="s">
+        <v>266</v>
+      </c>
+      <c r="L207" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>45904</v>
       </c>
@@ -5004,8 +8440,23 @@
       <c r="E208" s="8">
         <v>9.6615000000000002</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>266</v>
+      </c>
+      <c r="H208" t="s">
+        <v>266</v>
+      </c>
+      <c r="I208" t="s">
+        <v>266</v>
+      </c>
+      <c r="K208" t="s">
+        <v>266</v>
+      </c>
+      <c r="L208" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>45904</v>
       </c>
@@ -5021,8 +8472,23 @@
       <c r="E209" s="8">
         <v>15.4453</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>266</v>
+      </c>
+      <c r="H209">
+        <v>6.2942</v>
+      </c>
+      <c r="I209" t="s">
+        <v>266</v>
+      </c>
+      <c r="K209" t="s">
+        <v>266</v>
+      </c>
+      <c r="L209" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>45904</v>
       </c>
@@ -5038,8 +8504,23 @@
       <c r="E210" s="8">
         <v>39.226799999999997</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>266</v>
+      </c>
+      <c r="H210" t="s">
+        <v>266</v>
+      </c>
+      <c r="I210" t="s">
+        <v>266</v>
+      </c>
+      <c r="K210" t="s">
+        <v>266</v>
+      </c>
+      <c r="L210" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>45904</v>
       </c>
@@ -5055,8 +8536,23 @@
       <c r="E211" s="8">
         <v>5.6086</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>266</v>
+      </c>
+      <c r="H211">
+        <v>1.9296</v>
+      </c>
+      <c r="I211" t="s">
+        <v>266</v>
+      </c>
+      <c r="K211" t="s">
+        <v>266</v>
+      </c>
+      <c r="L211" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>45904</v>
       </c>
@@ -5072,8 +8568,23 @@
       <c r="E212" s="8">
         <v>0.35039999999999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>266</v>
+      </c>
+      <c r="H212" t="s">
+        <v>266</v>
+      </c>
+      <c r="I212" t="s">
+        <v>266</v>
+      </c>
+      <c r="K212" t="s">
+        <v>266</v>
+      </c>
+      <c r="L212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>45904</v>
       </c>
@@ -5089,8 +8600,23 @@
       <c r="E213" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>266</v>
+      </c>
+      <c r="H213" t="s">
+        <v>266</v>
+      </c>
+      <c r="I213" t="s">
+        <v>266</v>
+      </c>
+      <c r="K213" t="s">
+        <v>266</v>
+      </c>
+      <c r="L213" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>45904</v>
       </c>
@@ -5106,8 +8632,23 @@
       <c r="E214" s="8">
         <v>0.3856</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>266</v>
+      </c>
+      <c r="H214" t="s">
+        <v>266</v>
+      </c>
+      <c r="I214" t="s">
+        <v>266</v>
+      </c>
+      <c r="K214" t="s">
+        <v>266</v>
+      </c>
+      <c r="L214" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>45904</v>
       </c>
@@ -5123,8 +8664,23 @@
       <c r="E215" s="8">
         <v>3.6667000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>266</v>
+      </c>
+      <c r="H215" t="s">
+        <v>266</v>
+      </c>
+      <c r="I215" t="s">
+        <v>266</v>
+      </c>
+      <c r="K215" t="s">
+        <v>266</v>
+      </c>
+      <c r="L215" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>45904</v>
       </c>
@@ -5140,8 +8696,23 @@
       <c r="E216" s="8">
         <v>11.3842</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>266</v>
+      </c>
+      <c r="H216" t="s">
+        <v>266</v>
+      </c>
+      <c r="I216" t="s">
+        <v>266</v>
+      </c>
+      <c r="K216" t="s">
+        <v>266</v>
+      </c>
+      <c r="L216" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>45904</v>
       </c>
@@ -5157,8 +8728,23 @@
       <c r="E217" s="8">
         <v>8.2188999999999997</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>266</v>
+      </c>
+      <c r="H217" t="s">
+        <v>266</v>
+      </c>
+      <c r="I217" t="s">
+        <v>266</v>
+      </c>
+      <c r="K217" t="s">
+        <v>266</v>
+      </c>
+      <c r="L217" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
         <v>45904</v>
       </c>
@@ -5174,8 +8760,23 @@
       <c r="E218" s="8">
         <v>2.1095000000000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>266</v>
+      </c>
+      <c r="H218" t="s">
+        <v>266</v>
+      </c>
+      <c r="I218" t="s">
+        <v>266</v>
+      </c>
+      <c r="K218" t="s">
+        <v>266</v>
+      </c>
+      <c r="L218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
         <v>45904</v>
       </c>
@@ -5191,8 +8792,23 @@
       <c r="E219" s="8">
         <v>0.43930000000000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>266</v>
+      </c>
+      <c r="H219" t="s">
+        <v>266</v>
+      </c>
+      <c r="I219" t="s">
+        <v>266</v>
+      </c>
+      <c r="K219" t="s">
+        <v>266</v>
+      </c>
+      <c r="L219" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>45904</v>
       </c>
@@ -5208,8 +8824,23 @@
       <c r="E220" s="8">
         <v>0.76629999999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>266</v>
+      </c>
+      <c r="H220" t="s">
+        <v>266</v>
+      </c>
+      <c r="I220" t="s">
+        <v>266</v>
+      </c>
+      <c r="K220" t="s">
+        <v>266</v>
+      </c>
+      <c r="L220" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>45904</v>
       </c>
@@ -5225,8 +8856,23 @@
       <c r="E221" s="8">
         <v>31.895299999999999</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>266</v>
+      </c>
+      <c r="H221" t="s">
+        <v>266</v>
+      </c>
+      <c r="I221" t="s">
+        <v>266</v>
+      </c>
+      <c r="K221" t="s">
+        <v>266</v>
+      </c>
+      <c r="L221" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
         <v>45904</v>
       </c>
@@ -5242,8 +8888,23 @@
       <c r="E222" s="8">
         <v>8.2004999999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>266</v>
+      </c>
+      <c r="H222" t="s">
+        <v>266</v>
+      </c>
+      <c r="I222" t="s">
+        <v>266</v>
+      </c>
+      <c r="K222" t="s">
+        <v>266</v>
+      </c>
+      <c r="L222" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
         <v>45904</v>
       </c>
@@ -5259,8 +8920,23 @@
       <c r="E223" s="8">
         <v>7.9802999999999997</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>266</v>
+      </c>
+      <c r="H223">
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="I223" t="s">
+        <v>266</v>
+      </c>
+      <c r="K223" t="s">
+        <v>266</v>
+      </c>
+      <c r="L223" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="22" t="s">
         <v>259</v>
       </c>
@@ -5276,8 +8952,26 @@
       <c r="E224">
         <v>57.297199999999997</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
+        <v>266</v>
+      </c>
+      <c r="H224">
+        <v>13.8307</v>
+      </c>
+      <c r="I224" t="s">
+        <v>266</v>
+      </c>
+      <c r="J224" t="s">
+        <v>266</v>
+      </c>
+      <c r="K224" t="s">
+        <v>266</v>
+      </c>
+      <c r="L224" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="22" t="s">
         <v>259</v>
       </c>
@@ -5293,8 +8987,26 @@
       <c r="E225">
         <v>144.22</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G225">
+        <v>1.2843</v>
+      </c>
+      <c r="H225">
+        <v>4.5903999999999998</v>
+      </c>
+      <c r="I225" t="s">
+        <v>266</v>
+      </c>
+      <c r="J225" t="s">
+        <v>266</v>
+      </c>
+      <c r="K225" t="s">
+        <v>266</v>
+      </c>
+      <c r="L225" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="22" t="s">
         <v>259</v>
       </c>
@@ -5310,8 +9022,26 @@
       <c r="E226">
         <v>45.774500000000003</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>266</v>
+      </c>
+      <c r="H226">
+        <v>20.6267</v>
+      </c>
+      <c r="I226" t="s">
+        <v>266</v>
+      </c>
+      <c r="J226" t="s">
+        <v>266</v>
+      </c>
+      <c r="K226" t="s">
+        <v>266</v>
+      </c>
+      <c r="L226" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="22" t="s">
         <v>259</v>
       </c>
@@ -5327,8 +9057,26 @@
       <c r="E227">
         <v>1.8718999999999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G227" t="s">
+        <v>266</v>
+      </c>
+      <c r="H227">
+        <v>2.1156000000000001</v>
+      </c>
+      <c r="I227" t="s">
+        <v>266</v>
+      </c>
+      <c r="J227" t="s">
+        <v>266</v>
+      </c>
+      <c r="K227" t="s">
+        <v>266</v>
+      </c>
+      <c r="L227" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="22" t="s">
         <v>259</v>
       </c>
@@ -5344,8 +9092,26 @@
       <c r="E228">
         <v>6.5115999999999996</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G228" t="s">
+        <v>266</v>
+      </c>
+      <c r="H228" t="s">
+        <v>266</v>
+      </c>
+      <c r="I228" t="s">
+        <v>266</v>
+      </c>
+      <c r="J228" t="s">
+        <v>266</v>
+      </c>
+      <c r="K228" t="s">
+        <v>266</v>
+      </c>
+      <c r="L228" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="22" t="s">
         <v>259</v>
       </c>
@@ -5361,8 +9127,26 @@
       <c r="E229">
         <v>5.5298999999999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
+        <v>266</v>
+      </c>
+      <c r="H229">
+        <v>2.5335000000000001</v>
+      </c>
+      <c r="I229" t="s">
+        <v>266</v>
+      </c>
+      <c r="J229" t="s">
+        <v>266</v>
+      </c>
+      <c r="K229" t="s">
+        <v>266</v>
+      </c>
+      <c r="L229" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="22" t="s">
         <v>259</v>
       </c>
@@ -5378,8 +9162,26 @@
       <c r="E230">
         <v>40.477200000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G230">
+        <v>1.6048</v>
+      </c>
+      <c r="H230">
+        <v>11.982100000000001</v>
+      </c>
+      <c r="I230" t="s">
+        <v>266</v>
+      </c>
+      <c r="J230" t="s">
+        <v>266</v>
+      </c>
+      <c r="K230" t="s">
+        <v>266</v>
+      </c>
+      <c r="L230" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="22" t="s">
         <v>259</v>
       </c>
@@ -5395,8 +9197,26 @@
       <c r="E231">
         <v>62.894599999999997</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G231">
+        <v>1.3392999999999999</v>
+      </c>
+      <c r="H231">
+        <v>3.0537999999999998</v>
+      </c>
+      <c r="I231" t="s">
+        <v>266</v>
+      </c>
+      <c r="J231" t="s">
+        <v>266</v>
+      </c>
+      <c r="K231" t="s">
+        <v>266</v>
+      </c>
+      <c r="L231" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="22" t="s">
         <v>259</v>
       </c>
@@ -5412,8 +9232,26 @@
       <c r="E232">
         <v>55.147100000000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G232" t="s">
+        <v>266</v>
+      </c>
+      <c r="H232">
+        <v>3.0714000000000001</v>
+      </c>
+      <c r="I232" t="s">
+        <v>266</v>
+      </c>
+      <c r="J232" t="s">
+        <v>266</v>
+      </c>
+      <c r="K232" t="s">
+        <v>266</v>
+      </c>
+      <c r="L232" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="22" t="s">
         <v>259</v>
       </c>
@@ -5429,8 +9267,26 @@
       <c r="E233">
         <v>18.349</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>266</v>
+      </c>
+      <c r="H233">
+        <v>4.5326000000000004</v>
+      </c>
+      <c r="I233" t="s">
+        <v>266</v>
+      </c>
+      <c r="J233" t="s">
+        <v>266</v>
+      </c>
+      <c r="K233" t="s">
+        <v>266</v>
+      </c>
+      <c r="L233" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="22" t="s">
         <v>259</v>
       </c>
@@ -5446,8 +9302,26 @@
       <c r="E234">
         <v>5.4386000000000001</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G234" t="s">
+        <v>266</v>
+      </c>
+      <c r="H234" t="s">
+        <v>266</v>
+      </c>
+      <c r="I234" t="s">
+        <v>266</v>
+      </c>
+      <c r="J234" t="s">
+        <v>266</v>
+      </c>
+      <c r="K234" t="s">
+        <v>266</v>
+      </c>
+      <c r="L234" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="22" t="s">
         <v>259</v>
       </c>
@@ -5463,8 +9337,26 @@
       <c r="E235">
         <v>7.9466999999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
+        <v>266</v>
+      </c>
+      <c r="H235">
+        <v>6.0540000000000003</v>
+      </c>
+      <c r="I235" t="s">
+        <v>266</v>
+      </c>
+      <c r="J235" t="s">
+        <v>266</v>
+      </c>
+      <c r="K235" t="s">
+        <v>266</v>
+      </c>
+      <c r="L235" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="22" t="s">
         <v>259</v>
       </c>
@@ -5480,8 +9372,26 @@
       <c r="E236">
         <v>58.4086</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G236" t="s">
+        <v>266</v>
+      </c>
+      <c r="H236">
+        <v>7.8723999999999998</v>
+      </c>
+      <c r="I236" t="s">
+        <v>266</v>
+      </c>
+      <c r="J236" t="s">
+        <v>266</v>
+      </c>
+      <c r="K236" t="s">
+        <v>266</v>
+      </c>
+      <c r="L236" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="22" t="s">
         <v>259</v>
       </c>
@@ -5497,8 +9407,26 @@
       <c r="E237">
         <v>64.199799999999996</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>266</v>
+      </c>
+      <c r="H237">
+        <v>11.3302</v>
+      </c>
+      <c r="I237" t="s">
+        <v>266</v>
+      </c>
+      <c r="J237" t="s">
+        <v>266</v>
+      </c>
+      <c r="K237" t="s">
+        <v>266</v>
+      </c>
+      <c r="L237" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="22" t="s">
         <v>259</v>
       </c>
@@ -5514,8 +9442,26 @@
       <c r="E238">
         <v>0.3705</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>266</v>
+      </c>
+      <c r="H238" t="s">
+        <v>266</v>
+      </c>
+      <c r="I238" t="s">
+        <v>266</v>
+      </c>
+      <c r="J238" t="s">
+        <v>266</v>
+      </c>
+      <c r="K238">
+        <v>0.1827</v>
+      </c>
+      <c r="L238" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="22" t="s">
         <v>259</v>
       </c>
@@ -5531,8 +9477,26 @@
       <c r="E239">
         <v>54.961399999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
+        <v>266</v>
+      </c>
+      <c r="H239">
+        <v>19.575600000000001</v>
+      </c>
+      <c r="I239" t="s">
+        <v>266</v>
+      </c>
+      <c r="J239" t="s">
+        <v>266</v>
+      </c>
+      <c r="K239" t="s">
+        <v>266</v>
+      </c>
+      <c r="L239" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="22" t="s">
         <v>259</v>
       </c>
@@ -5548,8 +9512,26 @@
       <c r="E240">
         <v>100.22020000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G240">
+        <v>1.5561</v>
+      </c>
+      <c r="H240">
+        <v>9.3507999999999996</v>
+      </c>
+      <c r="I240" t="s">
+        <v>266</v>
+      </c>
+      <c r="J240" t="s">
+        <v>266</v>
+      </c>
+      <c r="K240" t="s">
+        <v>266</v>
+      </c>
+      <c r="L240" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="22" t="s">
         <v>259</v>
       </c>
@@ -5565,8 +9547,26 @@
       <c r="E241">
         <v>37.280700000000003</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G241">
+        <v>1.8239000000000001</v>
+      </c>
+      <c r="H241">
+        <v>25.555499999999999</v>
+      </c>
+      <c r="I241" t="s">
+        <v>266</v>
+      </c>
+      <c r="J241" t="s">
+        <v>266</v>
+      </c>
+      <c r="K241" t="s">
+        <v>266</v>
+      </c>
+      <c r="L241" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="22" t="s">
         <v>259</v>
       </c>
@@ -5582,8 +9582,26 @@
       <c r="E242">
         <v>4.2446999999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G242">
+        <v>1.3052999999999999</v>
+      </c>
+      <c r="H242">
+        <v>9.5902999999999992</v>
+      </c>
+      <c r="I242" t="s">
+        <v>266</v>
+      </c>
+      <c r="J242" t="s">
+        <v>266</v>
+      </c>
+      <c r="K242" t="s">
+        <v>266</v>
+      </c>
+      <c r="L242" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="22" t="s">
         <v>259</v>
       </c>
@@ -5599,8 +9617,26 @@
       <c r="E243">
         <v>7.4530000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G243">
+        <v>1.1503000000000001</v>
+      </c>
+      <c r="H243">
+        <v>3.9472999999999998</v>
+      </c>
+      <c r="I243" t="s">
+        <v>266</v>
+      </c>
+      <c r="J243" t="s">
+        <v>266</v>
+      </c>
+      <c r="K243" t="s">
+        <v>266</v>
+      </c>
+      <c r="L243" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="22" t="s">
         <v>259</v>
       </c>
@@ -5616,8 +9652,26 @@
       <c r="E244">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>266</v>
+      </c>
+      <c r="H244">
+        <v>7.1947000000000001</v>
+      </c>
+      <c r="I244" t="s">
+        <v>266</v>
+      </c>
+      <c r="J244" t="s">
+        <v>266</v>
+      </c>
+      <c r="K244" t="s">
+        <v>266</v>
+      </c>
+      <c r="L244" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="22" t="s">
         <v>259</v>
       </c>
@@ -5633,8 +9687,26 @@
       <c r="E245">
         <v>45.512799999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G245">
+        <v>1.3838999999999999</v>
+      </c>
+      <c r="H245">
+        <v>21.778300000000002</v>
+      </c>
+      <c r="I245" t="s">
+        <v>266</v>
+      </c>
+      <c r="J245" t="s">
+        <v>266</v>
+      </c>
+      <c r="K245" t="s">
+        <v>266</v>
+      </c>
+      <c r="L245" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="22" t="s">
         <v>259</v>
       </c>
@@ -5650,8 +9722,26 @@
       <c r="E246">
         <v>69.876900000000006</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G246" t="s">
+        <v>266</v>
+      </c>
+      <c r="H246">
+        <v>10.4786</v>
+      </c>
+      <c r="I246" t="s">
+        <v>266</v>
+      </c>
+      <c r="J246" t="s">
+        <v>266</v>
+      </c>
+      <c r="K246" t="s">
+        <v>266</v>
+      </c>
+      <c r="L246" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="22" t="s">
         <v>259</v>
       </c>
@@ -5667,8 +9757,26 @@
       <c r="E247">
         <v>52.937100000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>266</v>
+      </c>
+      <c r="H247">
+        <v>12.8489</v>
+      </c>
+      <c r="I247" t="s">
+        <v>266</v>
+      </c>
+      <c r="J247" t="s">
+        <v>266</v>
+      </c>
+      <c r="K247" t="s">
+        <v>266</v>
+      </c>
+      <c r="L247" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="22" t="s">
         <v>259</v>
       </c>
@@ -5684,8 +9792,26 @@
       <c r="E248">
         <v>14.8689</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G248">
+        <v>1.0992</v>
+      </c>
+      <c r="H248">
+        <v>10.985099999999999</v>
+      </c>
+      <c r="I248" t="s">
+        <v>266</v>
+      </c>
+      <c r="J248" t="s">
+        <v>266</v>
+      </c>
+      <c r="K248" t="s">
+        <v>266</v>
+      </c>
+      <c r="L248" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="22" t="s">
         <v>259</v>
       </c>
@@ -5701,8 +9827,26 @@
       <c r="E249">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G249">
+        <v>1.1866000000000001</v>
+      </c>
+      <c r="H249">
+        <v>5.9992999999999999</v>
+      </c>
+      <c r="I249" t="s">
+        <v>266</v>
+      </c>
+      <c r="J249" t="s">
+        <v>266</v>
+      </c>
+      <c r="K249" t="s">
+        <v>266</v>
+      </c>
+      <c r="L249" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="22" t="s">
         <v>259</v>
       </c>
@@ -5718,8 +9862,26 @@
       <c r="E250">
         <v>1.9843999999999999</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G250" t="s">
+        <v>266</v>
+      </c>
+      <c r="H250">
+        <v>12.8733</v>
+      </c>
+      <c r="I250" t="s">
+        <v>266</v>
+      </c>
+      <c r="J250" t="s">
+        <v>266</v>
+      </c>
+      <c r="K250" t="s">
+        <v>266</v>
+      </c>
+      <c r="L250" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="22" t="s">
         <v>259</v>
       </c>
@@ -5735,8 +9897,26 @@
       <c r="E251">
         <v>67.420699999999997</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G251" t="s">
+        <v>266</v>
+      </c>
+      <c r="H251">
+        <v>22.6052</v>
+      </c>
+      <c r="I251" t="s">
+        <v>266</v>
+      </c>
+      <c r="J251" t="s">
+        <v>266</v>
+      </c>
+      <c r="K251" t="s">
+        <v>266</v>
+      </c>
+      <c r="L251" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="22" t="s">
         <v>259</v>
       </c>
@@ -5752,8 +9932,26 @@
       <c r="E252">
         <v>73.032799999999995</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G252" t="s">
+        <v>266</v>
+      </c>
+      <c r="H252">
+        <v>19.361899999999999</v>
+      </c>
+      <c r="I252" t="s">
+        <v>266</v>
+      </c>
+      <c r="J252" t="s">
+        <v>266</v>
+      </c>
+      <c r="K252" t="s">
+        <v>266</v>
+      </c>
+      <c r="L252" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="22" t="s">
         <v>259</v>
       </c>
@@ -5768,6 +9966,24 @@
       </c>
       <c r="E253">
         <v>53.474499999999999</v>
+      </c>
+      <c r="G253" t="s">
+        <v>266</v>
+      </c>
+      <c r="H253">
+        <v>33.638500000000001</v>
+      </c>
+      <c r="I253" t="s">
+        <v>266</v>
+      </c>
+      <c r="J253" t="s">
+        <v>266</v>
+      </c>
+      <c r="K253" t="s">
+        <v>266</v>
+      </c>
+      <c r="L253" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
